--- a/biology/Médecine/John_Gaddum/John_Gaddum.xlsx
+++ b/biology/Médecine/John_Gaddum/John_Gaddum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Henry Gaddum est un pharmacologue britannique, né le 31 mars 1900 à Manchester et mort le 30 juin 1965.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1927 à 1935, il travaille au National Institut for Medical Research (Institut national de recherche médicale) à Londres avec Henry Dale. Ses travaux permirent de définir les notions d'antagonisme et d'agonisme vis-à-vis des récepteurs moléculaires. Il décrit notamment les interactions entre le LSD et les récepteurs de la sérotonine.
 </t>
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(eo) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en espéranto intitulé « John Gaddum » (voir la liste des auteurs).
 Obituaire</t>
